--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352FDFD-2B23-429F-9D4E-3A79FDD0F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2118EE79-E893-408F-90D5-E34E111F6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>LIFO</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1000 =&gt; 100,0 Sekunden</t>
+  </si>
+  <si>
+    <t>Single Queue</t>
   </si>
 </sst>
 </file>
@@ -381,14 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -994,6 +998,159 @@
         <v>4751</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1002</v>
+      </c>
+      <c r="D29">
+        <v>2916</v>
+      </c>
+      <c r="E29">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1551</v>
+      </c>
+      <c r="D30">
+        <v>2916</v>
+      </c>
+      <c r="E30">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1205</v>
+      </c>
+      <c r="D31">
+        <v>2916</v>
+      </c>
+      <c r="E31">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1348</v>
+      </c>
+      <c r="D32">
+        <v>2916</v>
+      </c>
+      <c r="E32">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2118EE79-E893-408F-90D5-E34E111F6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD261D3-ABD3-40AB-B7C6-473C6F1C02C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
   <si>
     <t>LIFO</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Single Queue</t>
+  </si>
+  <si>
+    <t>Globa AVG</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +464,9 @@
       <c r="E2">
         <v>7717</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
       <c r="K2">
         <v>5601</v>
       </c>
@@ -473,6 +479,9 @@
       <c r="N2">
         <v>8808</v>
       </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
       <c r="Q2">
         <v>3163</v>
       </c>
@@ -502,6 +511,9 @@
       <c r="E3">
         <v>11971</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
       <c r="K3">
         <v>1946</v>
       </c>
@@ -513,6 +525,9 @@
       </c>
       <c r="N3">
         <v>2260</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>2860</v>
@@ -543,6 +558,9 @@
       <c r="E4">
         <v>9119</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4">
         <v>1511</v>
       </c>
@@ -554,6 +572,9 @@
       </c>
       <c r="N4">
         <v>1717</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>2811</v>
@@ -584,6 +605,9 @@
       <c r="E5">
         <v>5120</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
       <c r="K5">
         <v>1873</v>
       </c>
@@ -595,6 +619,9 @@
       </c>
       <c r="N5">
         <v>2397</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
       </c>
       <c r="Q5">
         <v>3093</v>
@@ -625,6 +652,9 @@
       <c r="E6">
         <v>4667</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
       <c r="K6">
         <v>1400</v>
       </c>
@@ -636,6 +666,9 @@
       </c>
       <c r="N6">
         <v>1779</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>2953</v>
@@ -666,6 +699,44 @@
       <c r="E7">
         <v>4806</v>
       </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(K2:K6)</f>
+        <v>2466.1999999999998</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(L2:L6)</f>
+        <v>2755.4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="L7:N7" si="0">AVERAGE(M2:M6)</f>
+        <v>2225</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3392.2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <f>AVERAGE(Q2:Q6)</f>
+        <v>2976</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:T7" si="1">AVERAGE(R2:R6)</f>
+        <v>2969.8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>2966.2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>2979.8</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -829,7 +900,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -846,7 +917,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -878,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -893,25 +964,28 @@
       </c>
       <c r="E19">
         <v>4752</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
         <f>SUM(K2,Q2)</f>
         <v>8764</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:N19" si="0">SUM(L2,R2)</f>
+        <f t="shared" ref="L19:N19" si="2">SUM(L2,R2)</f>
         <v>9119</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7716</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11971</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -926,13 +1000,16 @@
       </c>
       <c r="E20">
         <v>4464</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
       </c>
       <c r="K20">
         <f>SUM(K3,Q3)</f>
         <v>4806</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L23" si="1">SUM(L3,R3)</f>
+        <f t="shared" ref="L20:L23" si="3">SUM(L3,R3)</f>
         <v>4958</v>
       </c>
       <c r="M20">
@@ -940,70 +1017,130 @@
         <v>4666</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N23" si="2">SUM(N3,T3)</f>
+        <f t="shared" ref="N20:N23" si="4">SUM(N3,T3)</f>
         <v>5120</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>3</v>
+      </c>
       <c r="K21">
         <f>SUM(K4,Q4)</f>
         <v>4322</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4373</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M23" si="3">SUM(M4,S4)</f>
+        <f t="shared" ref="M21:M23" si="5">SUM(M4,S4)</f>
         <v>4219</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4528</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>4</v>
+      </c>
       <c r="K22">
         <f>SUM(K5,Q5)</f>
         <v>4966</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5284</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4891</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5490</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>5</v>
+      </c>
       <c r="K23">
         <f>SUM(K6,Q6)</f>
         <v>4353</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4892</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4464</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4751</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(K19:K23)</f>
+        <v>5442.2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:N24" si="6">AVERAGE(L19:L23)</f>
+        <v>5725.2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>5191.2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1019,8 +1156,38 @@
       <c r="E29">
         <v>3919</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1348</v>
+      </c>
+      <c r="L29">
+        <v>1205</v>
+      </c>
+      <c r="M29">
+        <v>1002</v>
+      </c>
+      <c r="N29">
+        <v>1551</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>2916</v>
+      </c>
+      <c r="R29">
+        <v>2916</v>
+      </c>
+      <c r="S29">
+        <v>2916</v>
+      </c>
+      <c r="T29">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1036,8 +1203,38 @@
       <c r="E30">
         <v>4468</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>356</v>
+      </c>
+      <c r="L30">
+        <v>414</v>
+      </c>
+      <c r="M30">
+        <v>394</v>
+      </c>
+      <c r="N30">
+        <v>532</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2794</v>
+      </c>
+      <c r="R30">
+        <v>2794</v>
+      </c>
+      <c r="S30">
+        <v>2794</v>
+      </c>
+      <c r="T30">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1053,8 +1250,38 @@
       <c r="E31">
         <v>4122</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>2367</v>
+      </c>
+      <c r="L31">
+        <v>2379</v>
+      </c>
+      <c r="M31">
+        <v>3801</v>
+      </c>
+      <c r="N31">
+        <v>1769</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3025</v>
+      </c>
+      <c r="R31">
+        <v>3025</v>
+      </c>
+      <c r="S31">
+        <v>3025</v>
+      </c>
+      <c r="T31">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1070,85 +1297,510 @@
       <c r="E32">
         <v>4265</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>1493</v>
+      </c>
+      <c r="L32">
+        <v>1666</v>
+      </c>
+      <c r="M32">
+        <v>1322</v>
+      </c>
+      <c r="N32">
+        <v>2421</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>2965</v>
+      </c>
+      <c r="R32">
+        <v>2965</v>
+      </c>
+      <c r="S32">
+        <v>2965</v>
+      </c>
+      <c r="T32">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>394</v>
+      </c>
+      <c r="D33">
+        <v>2794</v>
+      </c>
+      <c r="E33">
+        <v>3188</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>616</v>
+      </c>
+      <c r="L33">
+        <v>739</v>
+      </c>
+      <c r="M33">
+        <v>596</v>
+      </c>
+      <c r="N33">
+        <v>985</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>2817</v>
+      </c>
+      <c r="R33">
+        <v>2817</v>
+      </c>
+      <c r="S33">
+        <v>2817</v>
+      </c>
+      <c r="T33">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>356</v>
+      </c>
+      <c r="D34">
+        <v>2794</v>
+      </c>
+      <c r="E34">
+        <v>3150</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K29:K33)</f>
+        <v>1236</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:N34" si="7">AVERAGE(L29:L33)</f>
+        <v>1280.5999999999999</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>1423</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>1451.6</v>
+      </c>
+      <c r="P34" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(Q29:Q33)</f>
+        <v>2903.4</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:T34" si="8">AVERAGE(R29:R33)</f>
+        <v>2903.4</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="8"/>
+        <v>2903.4</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>2903.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>414</v>
+      </c>
+      <c r="D35">
+        <v>2794</v>
+      </c>
+      <c r="E35">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>532</v>
+      </c>
+      <c r="D36">
+        <v>2794</v>
+      </c>
+      <c r="E36">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2367</v>
+      </c>
+      <c r="D37">
+        <v>3025</v>
+      </c>
+      <c r="E37">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2379</v>
+      </c>
+      <c r="D38">
+        <v>3025</v>
+      </c>
+      <c r="E38">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>3801</v>
+      </c>
+      <c r="D39">
+        <v>3025</v>
+      </c>
+      <c r="E39">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1769</v>
+      </c>
+      <c r="D40">
+        <v>3025</v>
+      </c>
+      <c r="E40">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2421</v>
+      </c>
+      <c r="D41">
+        <v>2965</v>
+      </c>
+      <c r="E41">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1322</v>
+      </c>
+      <c r="D42">
+        <v>2965</v>
+      </c>
+      <c r="E42">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1493</v>
+      </c>
+      <c r="D43">
+        <v>2965</v>
+      </c>
+      <c r="E43">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1666</v>
+      </c>
+      <c r="D44">
+        <v>2965</v>
+      </c>
+      <c r="E44">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>985</v>
+      </c>
+      <c r="D45">
+        <v>2817</v>
+      </c>
+      <c r="E45">
+        <v>3802</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>596</v>
+      </c>
+      <c r="D46">
+        <v>2817</v>
+      </c>
+      <c r="E46">
+        <v>3414</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K29,Q29)</f>
+        <v>4264</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:L50" si="9">SUM(L29,R29)</f>
+        <v>4121</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="10">SUM(M29,S29)</f>
+        <v>3918</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:N50" si="11">SUM(N29,T29)</f>
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>616</v>
+      </c>
+      <c r="D47">
+        <v>2817</v>
+      </c>
+      <c r="E47">
+        <v>3434</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <f>SUM(K30,Q30)</f>
+        <v>3150</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>3208</v>
+      </c>
+      <c r="M47">
+        <f>SUM(M30,S30)</f>
+        <v>3188</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="11"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>739</v>
+      </c>
+      <c r="D48">
+        <v>2817</v>
+      </c>
+      <c r="E48">
+        <v>3556</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <f>SUM(K31,Q31)</f>
+        <v>5392</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>5404</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M50" si="12">SUM(M31,S31)</f>
+        <v>6826</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="11"/>
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <f>SUM(K32,Q32)</f>
+        <v>4458</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>4631</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="12"/>
+        <v>4287</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <f>SUM(K33,Q33)</f>
+        <v>3433</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>3556</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="12"/>
+        <v>3413</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="11"/>
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE(K46:K50)</f>
+        <v>4139.3999999999996</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:N51" si="13">AVERAGE(L46:L50)</f>
+        <v>4184</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="13"/>
+        <v>4326.3999999999996</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="13"/>
+        <v>4355</v>
       </c>
     </row>
   </sheetData>

--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD261D3-ABD3-40AB-B7C6-473C6F1C02C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38A697-D141-4EAB-99FD-2430D0DDF929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>2860</v>
+        <v>2837</v>
       </c>
       <c r="R3">
         <v>2837</v>
@@ -539,7 +539,7 @@
         <v>2837</v>
       </c>
       <c r="T3">
-        <v>2860</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -674,13 +674,13 @@
         <v>2953</v>
       </c>
       <c r="R6">
-        <v>2945</v>
+        <v>2953</v>
       </c>
       <c r="S6">
-        <v>2927</v>
+        <v>2953</v>
       </c>
       <c r="T6">
-        <v>2972</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>2755.4</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="L7:N7" si="0">AVERAGE(M2:M6)</f>
+        <f t="shared" ref="M7:N7" si="0">AVERAGE(M2:M6)</f>
         <v>2225</v>
       </c>
       <c r="N7">
@@ -723,19 +723,19 @@
       </c>
       <c r="Q7">
         <f>AVERAGE(Q2:Q6)</f>
-        <v>2976</v>
+        <v>2971.4</v>
       </c>
       <c r="R7">
         <f t="shared" ref="R7:T7" si="1">AVERAGE(R2:R6)</f>
-        <v>2969.8</v>
+        <v>2971.4</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>2966.2</v>
+        <v>2971.4</v>
       </c>
       <c r="T7">
         <f t="shared" si="1"/>
-        <v>2979.8</v>
+        <v>2971.4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="K20">
         <f>SUM(K3,Q3)</f>
-        <v>4806</v>
+        <v>4783</v>
       </c>
       <c r="L20">
         <f t="shared" ref="L20:L23" si="3">SUM(L3,R3)</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N20">
         <f t="shared" ref="N20:N23" si="4">SUM(N3,T3)</f>
-        <v>5120</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1073,15 +1073,15 @@
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>4892</v>
+        <v>4900</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>4464</v>
+        <v>4490</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>4751</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1090,19 +1090,19 @@
       </c>
       <c r="K24">
         <f>AVERAGE(K19:K23)</f>
-        <v>5442.2</v>
+        <v>5437.6</v>
       </c>
       <c r="L24">
         <f t="shared" ref="L24:N24" si="6">AVERAGE(L19:L23)</f>
-        <v>5725.2</v>
+        <v>5726.8</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>5191.2</v>
+        <v>5196.3999999999996</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>6372</v>
+        <v>6363.6</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">

--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38A697-D141-4EAB-99FD-2430D0DDF929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0502AB-AF49-4593-9D50-E1E51AF781ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>LIFO</t>
   </si>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="U20" sqref="T20:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -447,8 +447,20 @@
       <c r="T1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>2370</v>
+      </c>
+      <c r="AB1">
+        <v>2788</v>
+      </c>
+      <c r="AC1">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -494,8 +506,20 @@
       <c r="T2">
         <v>3163</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1873</v>
+      </c>
+      <c r="AB2">
+        <v>2788</v>
+      </c>
+      <c r="AC2">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -541,8 +565,20 @@
       <c r="T3">
         <v>2837</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>2148</v>
+      </c>
+      <c r="AB3">
+        <v>2788</v>
+      </c>
+      <c r="AC3">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -588,8 +624,20 @@
       <c r="T4">
         <v>2811</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>2075</v>
+      </c>
+      <c r="AB4">
+        <v>2788</v>
+      </c>
+      <c r="AC4">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -636,7 +684,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -683,7 +731,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -738,7 +786,7 @@
         <v>2971.4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -755,7 +803,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -778,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -798,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -815,7 +863,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -832,7 +880,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -849,7 +897,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -866,7 +914,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -883,7 +931,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>

--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0502AB-AF49-4593-9D50-E1E51AF781ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62D805-09A8-4A19-BE02-D669E6BC11F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
   <si>
     <t>LIFO</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Globa AVG</t>
+  </si>
+  <si>
+    <t>Dwell Time</t>
+  </si>
+  <si>
+    <t>Global AVG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFO </t>
+  </si>
+  <si>
+    <t>Multi Queue</t>
+  </si>
+  <si>
+    <t>Multi Queue + Improvements</t>
   </si>
 </sst>
 </file>
@@ -122,6 +137,2400 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG. Dwell Times: Single-queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Multi-Queue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15739959925805194"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LIFO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$41:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>543.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>636.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03D3-44D9-A5D8-94F439C1A407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LIFO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$42:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>413.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03D3-44D9-A5D8-94F439C1A407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1602212704"/>
+        <c:axId val="1602213184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1602212704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Queueing-Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1602213184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1602213184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AVG. Dwell Time in Seconds </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1602212704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG. Dwell Times with Improvements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LIFO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$41:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>543.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>636.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF2A-4E95-82D4-C0E5FF08887E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LIFO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$42:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>413.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF2A-4E95-82D4-C0E5FF08887E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi Queue + Improvements</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LIFO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$43:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>489.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>525.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF2A-4E95-82D4-C0E5FF08887E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1271032688"/>
+        <c:axId val="1118711648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1271032688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Queueing-Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118711648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1118711648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG. Dwell</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time in </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271032688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB7787C-C474-417F-69E4-090C8F3C0800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A04F07-38B7-4CC6-3C07-B10619222954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="T20:U20"/>
+    <sheetView tabSelected="1" topLeftCell="N55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,9 +2808,10 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -447,6 +2857,9 @@
       <c r="T1" t="s">
         <v>2</v>
       </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
       <c r="Z1" t="s">
         <v>2</v>
       </c>
@@ -459,8 +2872,23 @@
       <c r="AC1">
         <v>5158</v>
       </c>
+      <c r="AG1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -506,6 +2934,9 @@
       <c r="T2">
         <v>3163</v>
       </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
@@ -518,8 +2949,20 @@
       <c r="AC2">
         <v>4661</v>
       </c>
+      <c r="AH2">
+        <v>2148</v>
+      </c>
+      <c r="AI2">
+        <v>2075</v>
+      </c>
+      <c r="AJ2">
+        <v>1873</v>
+      </c>
+      <c r="AK2">
+        <v>2370</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -565,6 +3008,9 @@
       <c r="T3">
         <v>2837</v>
       </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
       <c r="Z3" t="s">
         <v>0</v>
       </c>
@@ -577,8 +3023,20 @@
       <c r="AC3">
         <v>4937</v>
       </c>
+      <c r="AH3">
+        <v>601</v>
+      </c>
+      <c r="AI3">
+        <v>601</v>
+      </c>
+      <c r="AJ3">
+        <v>601</v>
+      </c>
+      <c r="AK3">
+        <v>601</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -624,6 +3082,9 @@
       <c r="T4">
         <v>2811</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
@@ -636,8 +3097,20 @@
       <c r="AC4">
         <v>4864</v>
       </c>
+      <c r="AH4">
+        <v>750</v>
+      </c>
+      <c r="AI4">
+        <v>740</v>
+      </c>
+      <c r="AJ4">
+        <v>740</v>
+      </c>
+      <c r="AK4">
+        <v>750</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -683,8 +3156,35 @@
       <c r="T5">
         <v>3093</v>
       </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>601</v>
+      </c>
+      <c r="AB5">
+        <v>2991</v>
+      </c>
+      <c r="AC5">
+        <v>3593</v>
+      </c>
+      <c r="AH5">
+        <v>3370</v>
+      </c>
+      <c r="AI5">
+        <v>3421</v>
+      </c>
+      <c r="AJ5">
+        <v>2896</v>
+      </c>
+      <c r="AK5">
+        <v>4284</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -730,8 +3230,35 @@
       <c r="T6">
         <v>2953</v>
       </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>601</v>
+      </c>
+      <c r="AB6">
+        <v>2991</v>
+      </c>
+      <c r="AC6">
+        <v>3592</v>
+      </c>
+      <c r="AH6">
+        <v>2540</v>
+      </c>
+      <c r="AI6">
+        <v>2869</v>
+      </c>
+      <c r="AJ6">
+        <v>2644</v>
+      </c>
+      <c r="AK6">
+        <v>3216</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -785,8 +3312,42 @@
         <f t="shared" si="1"/>
         <v>2971.4</v>
       </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>601</v>
+      </c>
+      <c r="AB7">
+        <v>2991</v>
+      </c>
+      <c r="AC7">
+        <v>3592</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH7">
+        <f>AVERAGE(AH2:AH6)</f>
+        <v>1881.8</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" ref="AI7:AK7" si="2">AVERAGE(AI2:AI6)</f>
+        <v>1941.2</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="2"/>
+        <v>1750.8</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="2"/>
+        <v>2244.1999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -802,8 +3363,23 @@
       <c r="E8">
         <v>4959</v>
       </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>601</v>
+      </c>
+      <c r="AB8">
+        <v>2991</v>
+      </c>
+      <c r="AC8">
+        <v>3592</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -825,8 +3401,23 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>740</v>
+      </c>
+      <c r="AB9">
+        <v>2816</v>
+      </c>
+      <c r="AC9">
+        <v>3557</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -845,8 +3436,38 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>750</v>
+      </c>
+      <c r="AB10">
+        <v>2816</v>
+      </c>
+      <c r="AC10">
+        <v>3567</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -862,8 +3483,35 @@
       <c r="E11">
         <v>4322</v>
       </c>
+      <c r="Y11">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>740</v>
+      </c>
+      <c r="AB11">
+        <v>2816</v>
+      </c>
+      <c r="AC11">
+        <v>3557</v>
+      </c>
+      <c r="AH11">
+        <v>2788</v>
+      </c>
+      <c r="AI11">
+        <v>2788</v>
+      </c>
+      <c r="AJ11">
+        <v>2788</v>
+      </c>
+      <c r="AK11">
+        <v>2788</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -879,8 +3527,35 @@
       <c r="E12">
         <v>4219</v>
       </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>750</v>
+      </c>
+      <c r="AB12">
+        <v>2816</v>
+      </c>
+      <c r="AC12">
+        <v>3567</v>
+      </c>
+      <c r="AH12">
+        <v>2991</v>
+      </c>
+      <c r="AI12">
+        <v>2991</v>
+      </c>
+      <c r="AJ12">
+        <v>2991</v>
+      </c>
+      <c r="AK12">
+        <v>2991</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -896,8 +3571,35 @@
       <c r="E13">
         <v>4892</v>
       </c>
+      <c r="Y13">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>4284</v>
+      </c>
+      <c r="AB13">
+        <v>3211</v>
+      </c>
+      <c r="AC13">
+        <v>7495</v>
+      </c>
+      <c r="AH13">
+        <v>2816</v>
+      </c>
+      <c r="AI13">
+        <v>2816</v>
+      </c>
+      <c r="AJ13">
+        <v>2816</v>
+      </c>
+      <c r="AK13">
+        <v>2816</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -913,8 +3615,35 @@
       <c r="E14">
         <v>4966</v>
       </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2896</v>
+      </c>
+      <c r="AB14">
+        <v>3211</v>
+      </c>
+      <c r="AC14">
+        <v>6107</v>
+      </c>
+      <c r="AH14">
+        <v>3211</v>
+      </c>
+      <c r="AI14">
+        <v>3211</v>
+      </c>
+      <c r="AJ14">
+        <v>3211</v>
+      </c>
+      <c r="AK14">
+        <v>3211</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -930,8 +3659,35 @@
       <c r="E15">
         <v>5285</v>
       </c>
+      <c r="Y15">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>3370</v>
+      </c>
+      <c r="AB15">
+        <v>3211</v>
+      </c>
+      <c r="AC15">
+        <v>6582</v>
+      </c>
+      <c r="AH15">
+        <v>3240</v>
+      </c>
+      <c r="AI15">
+        <v>3240</v>
+      </c>
+      <c r="AJ15">
+        <v>3240</v>
+      </c>
+      <c r="AK15">
+        <v>3240</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -947,8 +3703,42 @@
       <c r="E16">
         <v>5491</v>
       </c>
+      <c r="Y16">
+        <v>16</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3421</v>
+      </c>
+      <c r="AB16">
+        <v>3211</v>
+      </c>
+      <c r="AC16">
+        <v>6633</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH16">
+        <f>AVERAGE(AH11:AH15)</f>
+        <v>3009.2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" ref="AI16:AK16" si="3">AVERAGE(AI11:AI15)</f>
+        <v>3009.2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="3"/>
+        <v>3009.2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="3"/>
+        <v>3009.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -964,8 +3754,23 @@
       <c r="E17">
         <v>4354</v>
       </c>
+      <c r="Y17">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>2644</v>
+      </c>
+      <c r="AB17">
+        <v>3240</v>
+      </c>
+      <c r="AC17">
+        <v>5884</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -996,8 +3801,38 @@
       <c r="N18" t="s">
         <v>2</v>
       </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>3216</v>
+      </c>
+      <c r="AB18">
+        <v>3240</v>
+      </c>
+      <c r="AC18">
+        <v>6456</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1021,19 +3856,50 @@
         <v>8764</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:N19" si="2">SUM(L2,R2)</f>
+        <f t="shared" ref="L19:N19" si="4">SUM(L2,R2)</f>
         <v>9119</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7716</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11971</v>
       </c>
+      <c r="Y19">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>2869</v>
+      </c>
+      <c r="AB19">
+        <v>3240</v>
+      </c>
+      <c r="AC19">
+        <v>6109</v>
+      </c>
+      <c r="AH19">
+        <f>SUM(AH2,AH11)</f>
+        <v>4936</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" ref="AI19:AK19" si="5">SUM(AI2,AI11)</f>
+        <v>4863</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>4661</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="5"/>
+        <v>5158</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1057,7 +3923,7 @@
         <v>4783</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L23" si="3">SUM(L3,R3)</f>
+        <f t="shared" ref="L20:L23" si="6">SUM(L3,R3)</f>
         <v>4958</v>
       </c>
       <c r="M20">
@@ -1065,11 +3931,42 @@
         <v>4666</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N23" si="4">SUM(N3,T3)</f>
+        <f t="shared" ref="N20:N23" si="7">SUM(N3,T3)</f>
         <v>5097</v>
       </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>2540</v>
+      </c>
+      <c r="AB20">
+        <v>3240</v>
+      </c>
+      <c r="AC20">
+        <v>5780</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" ref="AH20:AK23" si="8">SUM(AH3,AH12)</f>
+        <v>3592</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" ref="AI20:AK20" si="9">SUM(AI3,AI12)</f>
+        <v>3592</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="9"/>
+        <v>3592</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="9"/>
+        <v>3592</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>3</v>
       </c>
@@ -1078,19 +3975,35 @@
         <v>4322</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4373</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M23" si="5">SUM(M4,S4)</f>
+        <f t="shared" ref="M21:M23" si="10">SUM(M4,S4)</f>
         <v>4219</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4528</v>
       </c>
+      <c r="AH21">
+        <f t="shared" si="8"/>
+        <v>3566</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" ref="AI21:AK21" si="11">SUM(AI4,AI13)</f>
+        <v>3556</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="11"/>
+        <v>3556</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="11"/>
+        <v>3566</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>4</v>
       </c>
@@ -1099,19 +4012,35 @@
         <v>4966</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5284</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4891</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5490</v>
       </c>
+      <c r="AH22">
+        <f t="shared" si="8"/>
+        <v>6581</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" ref="AI22:AK22" si="12">SUM(AI5,AI14)</f>
+        <v>6632</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="12"/>
+        <v>6107</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="12"/>
+        <v>7495</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>5</v>
       </c>
@@ -1120,19 +4049,35 @@
         <v>4353</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4900</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4490</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4732</v>
       </c>
+      <c r="AH23">
+        <f t="shared" si="8"/>
+        <v>5780</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" ref="AI23:AK23" si="13">SUM(AI6,AI15)</f>
+        <v>6109</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="13"/>
+        <v>5884</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="13"/>
+        <v>6456</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>11</v>
       </c>
@@ -1141,19 +4086,38 @@
         <v>5437.6</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:N24" si="6">AVERAGE(L19:L23)</f>
+        <f t="shared" ref="L24:N24" si="14">AVERAGE(L19:L23)</f>
         <v>5726.8</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5196.3999999999996</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>6363.6</v>
       </c>
+      <c r="AG24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH24">
+        <f>AVERAGE(AH19:AH23)</f>
+        <v>4891</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" ref="AI24" si="15">AVERAGE(AI19:AI23)</f>
+        <v>4950.3999999999996</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" ref="AJ24" si="16">AVERAGE(AJ19:AJ23)</f>
+        <v>4760</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24" si="17">AVERAGE(AK19:AK23)</f>
+        <v>5253.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1235,7 +4199,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1282,7 +4246,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1329,7 +4293,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1447,15 +4411,15 @@
         <v>1236</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:N34" si="7">AVERAGE(L29:L33)</f>
+        <f t="shared" ref="L34:N34" si="18">AVERAGE(L29:L33)</f>
         <v>1280.5999999999999</v>
       </c>
       <c r="M34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>1423</v>
       </c>
       <c r="N34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>1451.6</v>
       </c>
       <c r="P34" t="s">
@@ -1466,15 +4430,15 @@
         <v>2903.4</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:T34" si="8">AVERAGE(R29:R33)</f>
+        <f t="shared" ref="R34:T34" si="19">AVERAGE(R29:R33)</f>
         <v>2903.4</v>
       </c>
       <c r="S34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2903.4</v>
       </c>
       <c r="T34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>2903.4</v>
       </c>
     </row>
@@ -1579,6 +4543,18 @@
       <c r="E40">
         <v>4795</v>
       </c>
+      <c r="Q40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1596,6 +4572,21 @@
       <c r="E41">
         <v>5386</v>
       </c>
+      <c r="P41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="R41">
+        <v>572.6</v>
+      </c>
+      <c r="S41">
+        <v>519.6</v>
+      </c>
+      <c r="T41">
+        <v>636.29999999999995</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1613,6 +4604,21 @@
       <c r="E42">
         <v>4287</v>
       </c>
+      <c r="P42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>413.4</v>
+      </c>
+      <c r="R42">
+        <v>418.4</v>
+      </c>
+      <c r="S42">
+        <v>432.6</v>
+      </c>
+      <c r="T42">
+        <v>435.5</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1630,6 +4636,21 @@
       <c r="E43">
         <v>4459</v>
       </c>
+      <c r="P43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43">
+        <v>489.1</v>
+      </c>
+      <c r="R43">
+        <v>495</v>
+      </c>
+      <c r="S43">
+        <v>476</v>
+      </c>
+      <c r="T43">
+        <v>525.29999999999995</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1704,15 +4725,15 @@
         <v>4264</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L50" si="9">SUM(L29,R29)</f>
+        <f t="shared" ref="L46:L50" si="20">SUM(L29,R29)</f>
         <v>4121</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46" si="10">SUM(M29,S29)</f>
+        <f t="shared" ref="M46" si="21">SUM(M29,S29)</f>
         <v>3918</v>
       </c>
       <c r="N46">
-        <f t="shared" ref="N46:N50" si="11">SUM(N29,T29)</f>
+        <f t="shared" ref="N46:N50" si="22">SUM(N29,T29)</f>
         <v>4467</v>
       </c>
     </row>
@@ -1740,7 +4761,7 @@
         <v>3150</v>
       </c>
       <c r="L47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>3208</v>
       </c>
       <c r="M47">
@@ -1748,7 +4769,7 @@
         <v>3188</v>
       </c>
       <c r="N47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3326</v>
       </c>
     </row>
@@ -1776,15 +4797,15 @@
         <v>5392</v>
       </c>
       <c r="L48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>5404</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M50" si="12">SUM(M31,S31)</f>
+        <f t="shared" ref="M48:M50" si="23">SUM(M31,S31)</f>
         <v>6826</v>
       </c>
       <c r="N48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>4794</v>
       </c>
     </row>
@@ -1797,15 +4818,15 @@
         <v>4458</v>
       </c>
       <c r="L49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>4631</v>
       </c>
       <c r="M49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>4287</v>
       </c>
       <c r="N49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5386</v>
       </c>
     </row>
@@ -1818,15 +4839,15 @@
         <v>3433</v>
       </c>
       <c r="L50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>3556</v>
       </c>
       <c r="M50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>3413</v>
       </c>
       <c r="N50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3802</v>
       </c>
     </row>
@@ -1839,19 +4860,20 @@
         <v>4139.3999999999996</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:N51" si="13">AVERAGE(L46:L50)</f>
+        <f t="shared" ref="L51:N51" si="24">AVERAGE(L46:L50)</f>
         <v>4184</v>
       </c>
       <c r="M51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4326.3999999999996</v>
       </c>
       <c r="N51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MuS_Data.xlsx
+++ b/MuS_Data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\ModellierungUndSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\ModellierungUndSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352FDFD-2B23-429F-9D4E-3A79FDD0F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7596" yWindow="1860" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>LIFO</t>
   </si>
@@ -65,11 +64,26 @@
   <si>
     <t xml:space="preserve"> 1000 =&gt; 100,0 Sekunden</t>
   </si>
+  <si>
+    <t>SINGLE QUEUE RUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwell </t>
+  </si>
+  <si>
+    <t>Global AVG.</t>
+  </si>
+  <si>
+    <t>SINGLE QUEUE</t>
+  </si>
+  <si>
+    <t>MULTI QUEUE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,12 +109,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,21 +483,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -440,8 +544,20 @@
       <c r="T1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -481,8 +597,23 @@
       <c r="T2">
         <v>3163</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="2">
+        <v>2466.1999999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2755.4</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2225</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>3392.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -522,8 +653,21 @@
       <c r="T3">
         <v>2860</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="4"/>
+      <c r="W3" s="5">
+        <v>2976</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2969.8</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2966.2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>2979.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -563,8 +707,21 @@
       <c r="T4">
         <v>2811</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="7"/>
+      <c r="W4" s="8">
+        <v>5442.2</v>
+      </c>
+      <c r="X4" s="8">
+        <v>5725.2</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>5191.2</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -604,8 +761,23 @@
       <c r="T5">
         <v>3093</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1364.2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1390</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1120.4000000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -645,8 +817,21 @@
       <c r="T6">
         <v>2972</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="W6" s="5">
+        <v>3052.8</v>
+      </c>
+      <c r="X6" s="5">
+        <v>3052.8</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>3052.8</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>3052.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -662,8 +847,59 @@
       <c r="E7">
         <v>4806</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(K2:K6)</f>
+        <v>2466.1999999999998</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(L2:L6)</f>
+        <v>2755.4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="L7:N7" si="0">AVERAGE(M2:M6)</f>
+        <v>2225</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3392.2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="1">AVERAGE(Q2:Q6)</f>
+        <v>2976</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7" si="2">AVERAGE(R2:R6)</f>
+        <v>2969.8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7" si="3">AVERAGE(S2:S6)</f>
+        <v>2966.2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7" si="4">AVERAGE(T2:T6)</f>
+        <v>2979.8</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8">
+        <v>4417</v>
+      </c>
+      <c r="X7" s="8">
+        <v>4442.8</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>4173.2</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>5068.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -680,7 +916,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -703,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -723,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -740,7 +976,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -757,7 +993,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -773,8 +1009,23 @@
       <c r="E13">
         <v>4892</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -790,8 +1041,24 @@
       <c r="E14">
         <v>4966</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>SUM(K2,Q2)</f>
+        <v>8764</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:N18" si="5">SUM(L2,R2)</f>
+        <v>9119</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>7716</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>11971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -807,8 +1074,24 @@
       <c r="E15">
         <v>5285</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" ref="K15:K18" si="6">SUM(K3,Q3)</f>
+        <v>4806</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>4958</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>4666</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -824,8 +1107,24 @@
       <c r="E16">
         <v>5491</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>4322</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>4373</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>4219</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -841,8 +1140,24 @@
       <c r="E17">
         <v>4354</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>4966</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>5284</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>4891</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -858,23 +1173,24 @@
       <c r="E18">
         <v>4892</v>
       </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>4353</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>4892</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>4464</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -890,24 +1206,27 @@
       <c r="E19">
         <v>4752</v>
       </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
       <c r="K19">
-        <f>SUM(K2,Q2)</f>
-        <v>8764</v>
+        <f>AVERAGE(K14:K18)</f>
+        <v>5442.2</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:N19" si="0">SUM(L2,R2)</f>
-        <v>9119</v>
+        <f t="shared" ref="L19" si="7">AVERAGE(L14:L18)</f>
+        <v>5725.2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
-        <v>7716</v>
+        <f t="shared" ref="M19" si="8">AVERAGE(M14:M18)</f>
+        <v>5191.2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>11971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(N14:N18)</f>
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -923,75 +1242,652 @@
       <c r="E20">
         <v>4464</v>
       </c>
-      <c r="K20">
-        <f>SUM(K3,Q3)</f>
-        <v>4806</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20:L23" si="1">SUM(L3,R3)</f>
-        <v>4958</v>
-      </c>
-      <c r="M20">
-        <f>SUM(M3,S3)</f>
-        <v>4666</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ref="N20:N23" si="2">SUM(N3,T3)</f>
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <f>SUM(K4,Q4)</f>
-        <v>4322</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>4373</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M23" si="3">SUM(M4,S4)</f>
-        <v>4219</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
-        <v>4528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <f>SUM(K5,Q5)</f>
-        <v>4966</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>5284</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>4891</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>5490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K23">
-        <f>SUM(K6,Q6)</f>
-        <v>4353</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>4892</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>4464</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>4751</v>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1478</v>
+      </c>
+      <c r="D26">
+        <v>3269</v>
+      </c>
+      <c r="E26">
+        <v>4748</v>
+      </c>
+      <c r="K26">
+        <v>1618</v>
+      </c>
+      <c r="L26">
+        <v>1954</v>
+      </c>
+      <c r="M26">
+        <v>1478</v>
+      </c>
+      <c r="N26">
+        <v>2477</v>
+      </c>
+      <c r="Q26">
+        <v>3269</v>
+      </c>
+      <c r="R26">
+        <v>3269</v>
+      </c>
+      <c r="S26">
+        <v>3269</v>
+      </c>
+      <c r="T26">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1954</v>
+      </c>
+      <c r="D27">
+        <v>3269</v>
+      </c>
+      <c r="E27">
+        <v>5224</v>
+      </c>
+      <c r="K27">
+        <v>477</v>
+      </c>
+      <c r="L27">
+        <v>476</v>
+      </c>
+      <c r="M27">
+        <v>466</v>
+      </c>
+      <c r="N27">
+        <v>541</v>
+      </c>
+      <c r="Q27">
+        <v>2817</v>
+      </c>
+      <c r="R27">
+        <v>2817</v>
+      </c>
+      <c r="S27">
+        <v>2817</v>
+      </c>
+      <c r="T27">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1618</v>
+      </c>
+      <c r="D28">
+        <v>3269</v>
+      </c>
+      <c r="E28">
+        <v>4888</v>
+      </c>
+      <c r="K28">
+        <v>1797</v>
+      </c>
+      <c r="L28">
+        <v>2009</v>
+      </c>
+      <c r="M28">
+        <v>1638</v>
+      </c>
+      <c r="N28">
+        <v>3274</v>
+      </c>
+      <c r="Q28">
+        <v>3088</v>
+      </c>
+      <c r="R28">
+        <v>3088</v>
+      </c>
+      <c r="S28">
+        <v>3088</v>
+      </c>
+      <c r="T28">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2477</v>
+      </c>
+      <c r="D29">
+        <v>3269</v>
+      </c>
+      <c r="E29">
+        <v>5746</v>
+      </c>
+      <c r="K29">
+        <v>2623</v>
+      </c>
+      <c r="L29">
+        <v>2203</v>
+      </c>
+      <c r="M29">
+        <v>1743</v>
+      </c>
+      <c r="N29">
+        <v>3441</v>
+      </c>
+      <c r="Q29">
+        <v>3050</v>
+      </c>
+      <c r="R29">
+        <v>3050</v>
+      </c>
+      <c r="S29">
+        <v>3050</v>
+      </c>
+      <c r="T29">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>477</v>
+      </c>
+      <c r="D30">
+        <v>2817</v>
+      </c>
+      <c r="E30">
+        <v>3295</v>
+      </c>
+      <c r="K30">
+        <v>306</v>
+      </c>
+      <c r="L30">
+        <v>308</v>
+      </c>
+      <c r="M30">
+        <v>277</v>
+      </c>
+      <c r="N30">
+        <v>347</v>
+      </c>
+      <c r="Q30">
+        <v>3040</v>
+      </c>
+      <c r="R30">
+        <v>3040</v>
+      </c>
+      <c r="S30">
+        <v>3040</v>
+      </c>
+      <c r="T30">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>476</v>
+      </c>
+      <c r="D31">
+        <v>2817</v>
+      </c>
+      <c r="E31">
+        <v>3293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE(K26:K30)</f>
+        <v>1364.2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:T31" si="9">AVERAGE(L26:L30)</f>
+        <v>1390</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>1120.4000000000001</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>2016</v>
+      </c>
+      <c r="P31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>3052.8</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>3052.8</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>3052.8</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>3052.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>541</v>
+      </c>
+      <c r="D32">
+        <v>2817</v>
+      </c>
+      <c r="E32">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>466</v>
+      </c>
+      <c r="D33">
+        <v>2817</v>
+      </c>
+      <c r="E33">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1638</v>
+      </c>
+      <c r="D34">
+        <v>3088</v>
+      </c>
+      <c r="E34">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3274</v>
+      </c>
+      <c r="D35">
+        <v>3088</v>
+      </c>
+      <c r="E35">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2009</v>
+      </c>
+      <c r="D36">
+        <v>3088</v>
+      </c>
+      <c r="E36">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1797</v>
+      </c>
+      <c r="D37">
+        <v>3088</v>
+      </c>
+      <c r="E37">
+        <v>4885</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2623</v>
+      </c>
+      <c r="D38">
+        <v>3050</v>
+      </c>
+      <c r="E38">
+        <v>5673</v>
+      </c>
+      <c r="K38">
+        <f>SUM(K26,Q26)</f>
+        <v>4887</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:N41" si="10">SUM(L26,R26)</f>
+        <v>5223</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="10"/>
+        <v>4747</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="10"/>
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2203</v>
+      </c>
+      <c r="D39">
+        <v>3050</v>
+      </c>
+      <c r="E39">
+        <v>5253</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K42" si="11">SUM(K27,Q27)</f>
+        <v>3294</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>3293</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="10"/>
+        <v>3283</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3441</v>
+      </c>
+      <c r="D40">
+        <v>3050</v>
+      </c>
+      <c r="E40">
+        <v>6491</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="11"/>
+        <v>4885</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>5097</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="10"/>
+        <v>4726</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1743</v>
+      </c>
+      <c r="D41">
+        <v>3050</v>
+      </c>
+      <c r="E41">
+        <v>4793</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="11"/>
+        <v>5673</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>5253</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="10"/>
+        <v>4793</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>347</v>
+      </c>
+      <c r="D42">
+        <v>3040</v>
+      </c>
+      <c r="E42">
+        <v>3387</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K30,Q30)</f>
+        <v>3346</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:N42" si="12">SUM(L30,R30)</f>
+        <v>3348</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="12"/>
+        <v>3317</v>
+      </c>
+      <c r="N42">
+        <f>SUM(N30,T30)</f>
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>277</v>
+      </c>
+      <c r="D43">
+        <v>3040</v>
+      </c>
+      <c r="E43">
+        <v>3317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE(K38:K42)</f>
+        <v>4417</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:N43" si="13">AVERAGE(L38:L42)</f>
+        <v>4442.8</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="13"/>
+        <v>4173.2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="13"/>
+        <v>5068.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>306</v>
+      </c>
+      <c r="D44">
+        <v>3040</v>
+      </c>
+      <c r="E44">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>308</v>
+      </c>
+      <c r="D45">
+        <v>3040</v>
+      </c>
+      <c r="E45">
+        <v>3348</v>
       </c>
     </row>
   </sheetData>
